--- a/MavenProject1/data/TC002.xlsx
+++ b/MavenProject1/data/TC002.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Url</t>
   </si>
@@ -40,21 +40,12 @@
     <t>eagle1</t>
   </si>
   <si>
-    <t>COMMENTARY,FIXED INCOME</t>
-  </si>
-  <si>
-    <t>3000,10000</t>
-  </si>
-  <si>
     <t>http://10.130.35.25:100/modules/olapv3/</t>
   </si>
   <si>
     <t>ReportsTabReport</t>
   </si>
   <si>
-    <t>Attrib And Risk Report, AL HY Fixed Income Attribution</t>
-  </si>
-  <si>
     <t>4 Level Model1</t>
   </si>
   <si>
@@ -68,13 +59,19 @@
   </si>
   <si>
     <t>testsasiURL</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>M2_PrototypeWithChart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +84,21 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4E4949"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,15 +118,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,8 +448,11 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -452,18 +475,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -471,27 +494,36 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>